--- a/Test Artifacts/Checklist.xlsx
+++ b/Test Artifacts/Checklist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="125">
   <si>
     <t>Project:</t>
   </si>
@@ -405,28 +405,20 @@
     <t>Search suggestions with "Cou"</t>
   </si>
   <si>
-    <t>BUG-1</t>
-  </si>
-  <si>
-    <t>BUG-2</t>
-  </si>
-  <si>
-    <t>BUG-3</t>
-  </si>
-  <si>
-    <t>BUG-4</t>
-  </si>
-  <si>
-    <t>BUG-5</t>
-  </si>
-  <si>
-    <t>BUG6</t>
-  </si>
-  <si>
-    <t>BUG-7</t>
-  </si>
-  <si>
-    <t>BUG-12</t>
+    <t>DEV-9
+DEV-10
+DEV-13
+DEV-14
+DEV-15</t>
+  </si>
+  <si>
+    <t>DEV-10</t>
+  </si>
+  <si>
+    <t>DEV-14</t>
+  </si>
+  <si>
+    <t>DEV-12</t>
   </si>
 </sst>
 </file>
@@ -506,7 +498,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -759,8 +751,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -822,8 +827,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -923,6 +930,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,11 +948,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -976,6 +989,7 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1003,449 +1017,10 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="127">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="83">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2801,8 +2376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B39"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2818,15 +2393,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
@@ -2948,7 +2523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" ht="80" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="13">
         <v>1</v>
       </c>
@@ -2965,7 +2540,9 @@
       <c r="G12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="13">
@@ -3250,7 +2827,9 @@
       <c r="G27" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="28" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="28" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="13">
@@ -3364,9 +2943,7 @@
       <c r="G33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="40" t="s">
-        <v>123</v>
-      </c>
+      <c r="H33" s="35"/>
     </row>
     <row r="34" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="13">
@@ -3385,9 +2962,7 @@
       <c r="G34" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="28" t="s">
-        <v>122</v>
-      </c>
+      <c r="H34" s="28"/>
     </row>
     <row r="35" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="13">
@@ -3406,9 +2981,7 @@
       <c r="G35" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H35" s="28" t="s">
-        <v>121</v>
-      </c>
+      <c r="H35" s="28"/>
     </row>
     <row r="36" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="13">
@@ -3514,13 +3087,13 @@
       <c r="H42" s="16"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="9"/>
@@ -3592,37 +3165,37 @@
     <mergeCell ref="B43:H43"/>
   </mergeCells>
   <conditionalFormatting sqref="F12:F42">
-    <cfRule type="containsText" dxfId="126" priority="13" operator="containsText" text="passed">
+    <cfRule type="containsText" dxfId="82" priority="13" operator="containsText" text="passed">
       <formula>NOT(ISERROR(SEARCH("passed",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="14" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="81" priority="14" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C15 C25:C42">
-    <cfRule type="containsText" dxfId="124" priority="5" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="123" priority="6" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="79" priority="6" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="78" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="121" priority="3" operator="containsText" text="positive">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="positive">
       <formula>NOT(ISERROR(SEARCH("positive",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="4" operator="containsText" text="negative">
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="negative">
       <formula>NOT(ISERROR(SEARCH("negative",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G42">
-    <cfRule type="containsText" dxfId="119" priority="1" operator="containsText" text="positive">
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="positive">
       <formula>NOT(ISERROR(SEARCH("positive",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="2" operator="containsText" text="negative">
+    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="negative">
       <formula>NOT(ISERROR(SEARCH("negative",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3636,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3653,15 +3226,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
@@ -3858,7 +3431,7 @@
         <v>62</v>
       </c>
       <c r="H15" s="28" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -3975,9 +3548,7 @@
       <c r="G21" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="28" t="s">
-        <v>126</v>
-      </c>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="13">
@@ -4093,13 +3664,13 @@
       <c r="H28" s="16"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="9"/>
@@ -4171,167 +3742,167 @@
     <mergeCell ref="B29:H29"/>
   </mergeCells>
   <conditionalFormatting sqref="F12 F14:F28">
-    <cfRule type="containsText" dxfId="117" priority="52" operator="containsText" text="passed">
+    <cfRule type="containsText" dxfId="73" priority="52" operator="containsText" text="passed">
       <formula>NOT(ISERROR(SEARCH("passed",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="116" priority="49" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="72" priority="49" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="50" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="71" priority="50" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="114" priority="36" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="70" priority="36" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="37" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="69" priority="37" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="38" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="68" priority="38" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15 C18">
-    <cfRule type="containsText" dxfId="111" priority="33" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="67" priority="33" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="34" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="66" priority="34" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="35" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="65" priority="35" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14 C17 C27">
-    <cfRule type="containsText" dxfId="108" priority="30" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="64" priority="30" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="31" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="63" priority="31" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="32" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="62" priority="32" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13 C16">
-    <cfRule type="containsText" dxfId="105" priority="27" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="61" priority="27" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="28" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="60" priority="28" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="103" priority="29" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="59" priority="29" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="102" priority="25" operator="containsText" text="passed">
+    <cfRule type="containsText" dxfId="58" priority="25" operator="containsText" text="passed">
       <formula>NOT(ISERROR(SEARCH("passed",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="26" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="57" priority="26" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="100" priority="21" operator="containsText" text="positive">
+    <cfRule type="containsText" dxfId="56" priority="21" operator="containsText" text="positive">
       <formula>NOT(ISERROR(SEARCH("positive",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="22" operator="containsText" text="negative">
+    <cfRule type="containsText" dxfId="55" priority="22" operator="containsText" text="negative">
       <formula>NOT(ISERROR(SEARCH("negative",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G28">
-    <cfRule type="containsText" dxfId="98" priority="19" operator="containsText" text="positive">
+    <cfRule type="containsText" dxfId="54" priority="19" operator="containsText" text="positive">
       <formula>NOT(ISERROR(SEARCH("positive",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G28">
-    <cfRule type="containsText" dxfId="97" priority="20" operator="containsText" text="negative">
+    <cfRule type="containsText" dxfId="53" priority="20" operator="containsText" text="negative">
       <formula>NOT(ISERROR(SEARCH("negative",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F28">
-    <cfRule type="containsText" dxfId="96" priority="53" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C18 C27:C28">
-    <cfRule type="containsText" dxfId="95" priority="51" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="51" priority="51" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="94" priority="17" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="50" priority="17" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="18" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="49" priority="18" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="containsText" dxfId="92" priority="15" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="48" priority="15" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="91" priority="16" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="47" priority="16" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="containsText" dxfId="90" priority="13" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="46" priority="13" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="14" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="45" priority="14" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16">
-    <cfRule type="containsText" dxfId="88" priority="11" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="44" priority="11" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="87" priority="12" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="43" priority="12" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="containsText" dxfId="86" priority="9" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="42" priority="9" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="10" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="41" priority="10" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="containsText" dxfId="84" priority="7" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="40" priority="7" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="8" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="39" priority="8" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="4" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="37" priority="4" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="5" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="79" priority="6" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21">
-    <cfRule type="containsText" dxfId="78" priority="1" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="34" priority="1" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="33" priority="2" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C21)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4345,8 +3916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4362,15 +3933,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
@@ -4514,7 +4085,9 @@
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
+      <c r="B13" s="13">
+        <v>2</v>
+      </c>
       <c r="C13" s="25" t="s">
         <v>13</v>
       </c>
@@ -4533,7 +4106,9 @@
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
+      <c r="B14" s="13">
+        <v>3</v>
+      </c>
       <c r="C14" s="25" t="s">
         <v>11</v>
       </c>
@@ -4550,7 +4125,9 @@
       <c r="H14" s="28"/>
     </row>
     <row r="15" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
+      <c r="B15" s="13">
+        <v>4</v>
+      </c>
       <c r="C15" s="25" t="s">
         <v>11</v>
       </c>
@@ -4567,7 +4144,9 @@
       <c r="H15" s="28"/>
     </row>
     <row r="16" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13">
+        <v>5</v>
+      </c>
       <c r="C16" s="25" t="s">
         <v>13</v>
       </c>
@@ -4584,7 +4163,9 @@
       <c r="H16" s="28"/>
     </row>
     <row r="17" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
+      <c r="B17" s="13">
+        <v>6</v>
+      </c>
       <c r="C17" s="25" t="s">
         <v>11</v>
       </c>
@@ -4601,7 +4182,9 @@
       <c r="H17" s="28"/>
     </row>
     <row r="18" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
+      <c r="B18" s="13">
+        <v>7</v>
+      </c>
       <c r="C18" s="25" t="s">
         <v>13</v>
       </c>
@@ -4617,12 +4200,12 @@
       <c r="G18" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="28" t="s">
-        <v>127</v>
-      </c>
+      <c r="H18" s="28"/>
     </row>
     <row r="19" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
+      <c r="B19" s="13">
+        <v>8</v>
+      </c>
       <c r="C19" s="25" t="s">
         <v>11</v>
       </c>
@@ -4641,7 +4224,9 @@
       <c r="H19" s="28"/>
     </row>
     <row r="20" spans="2:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
+      <c r="B20" s="13">
+        <v>9</v>
+      </c>
       <c r="C20" s="25" t="s">
         <v>11</v>
       </c>
@@ -4660,7 +4245,9 @@
       <c r="H20" s="28"/>
     </row>
     <row r="21" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
+      <c r="B21" s="13">
+        <v>10</v>
+      </c>
       <c r="C21" s="25" t="s">
         <v>11</v>
       </c>
@@ -4679,7 +4266,9 @@
       <c r="H21" s="28"/>
     </row>
     <row r="22" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
+      <c r="B22" s="13">
+        <v>11</v>
+      </c>
       <c r="C22" s="25" t="s">
         <v>11</v>
       </c>
@@ -4698,7 +4287,9 @@
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="2:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="13">
+        <v>12</v>
+      </c>
       <c r="C23" s="25" t="s">
         <v>11</v>
       </c>
@@ -4717,7 +4308,9 @@
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="13">
+        <v>13</v>
+      </c>
       <c r="C24" s="25" t="s">
         <v>11</v>
       </c>
@@ -4736,7 +4329,9 @@
       <c r="H24" s="28"/>
     </row>
     <row r="25" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="13">
+        <v>14</v>
+      </c>
       <c r="C25" s="25" t="s">
         <v>11</v>
       </c>
@@ -4755,7 +4350,9 @@
       <c r="H25" s="28"/>
     </row>
     <row r="26" spans="2:8" ht="55" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
+      <c r="B26" s="13">
+        <v>15</v>
+      </c>
       <c r="C26" s="25" t="s">
         <v>11</v>
       </c>
@@ -4774,7 +4371,9 @@
       <c r="H26" s="28"/>
     </row>
     <row r="27" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="13"/>
+      <c r="B27" s="13">
+        <v>16</v>
+      </c>
       <c r="C27" s="25" t="s">
         <v>11</v>
       </c>
@@ -4788,12 +4387,12 @@
       <c r="G27" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H27" s="28" t="s">
-        <v>128</v>
-      </c>
+      <c r="H27" s="28"/>
     </row>
     <row r="28" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="13"/>
+      <c r="B28" s="13">
+        <v>17</v>
+      </c>
       <c r="C28" s="25" t="s">
         <v>11</v>
       </c>
@@ -4810,7 +4409,9 @@
       <c r="H28" s="28"/>
     </row>
     <row r="29" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="13"/>
+      <c r="B29" s="13">
+        <v>18</v>
+      </c>
       <c r="C29" s="25" t="s">
         <v>11</v>
       </c>
@@ -4863,13 +4464,13 @@
       <c r="H33" s="16"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="9"/>
@@ -4953,29 +4554,29 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G33">
-    <cfRule type="containsText" dxfId="76" priority="8" operator="containsText" text="positive">
+    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="positive">
       <formula>NOT(ISERROR(SEARCH("positive",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="75" priority="9" operator="containsText" text="negative">
+    <cfRule type="containsText" dxfId="31" priority="9" operator="containsText" text="negative">
       <formula>NOT(ISERROR(SEARCH("negative",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F33">
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C33">
-    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="71" priority="2" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="3" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4989,8 +4590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5006,15 +4607,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
@@ -5169,7 +4770,9 @@
       <c r="H13" s="28"/>
     </row>
     <row r="14" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
+      <c r="B14" s="13">
+        <v>2</v>
+      </c>
       <c r="C14" s="25" t="s">
         <v>11</v>
       </c>
@@ -5186,7 +4789,9 @@
       <c r="H14" s="28"/>
     </row>
     <row r="15" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
+      <c r="B15" s="13">
+        <v>3</v>
+      </c>
       <c r="C15" s="25" t="s">
         <v>11</v>
       </c>
@@ -5203,7 +4808,9 @@
       <c r="H15" s="28"/>
     </row>
     <row r="16" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
+      <c r="B16" s="13">
+        <v>4</v>
+      </c>
       <c r="C16" s="25" t="s">
         <v>11</v>
       </c>
@@ -5220,7 +4827,9 @@
       <c r="H16" s="28"/>
     </row>
     <row r="17" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
+      <c r="B17" s="13">
+        <v>5</v>
+      </c>
       <c r="C17" s="25" t="s">
         <v>11</v>
       </c>
@@ -5237,7 +4846,9 @@
       <c r="H17" s="28"/>
     </row>
     <row r="18" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
+      <c r="B18" s="13">
+        <v>6</v>
+      </c>
       <c r="C18" s="25" t="s">
         <v>11</v>
       </c>
@@ -5254,7 +4865,9 @@
       <c r="H18" s="28"/>
     </row>
     <row r="19" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
+      <c r="B19" s="13">
+        <v>7</v>
+      </c>
       <c r="C19" s="25" t="s">
         <v>11</v>
       </c>
@@ -5271,7 +4884,9 @@
       <c r="H19" s="28"/>
     </row>
     <row r="20" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
+      <c r="B20" s="13">
+        <v>8</v>
+      </c>
       <c r="C20" s="25" t="s">
         <v>11</v>
       </c>
@@ -5288,7 +4903,9 @@
       <c r="H20" s="28"/>
     </row>
     <row r="21" spans="2:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
+      <c r="B21" s="13">
+        <v>9</v>
+      </c>
       <c r="C21" s="25" t="s">
         <v>11</v>
       </c>
@@ -5305,7 +4922,9 @@
       <c r="H21" s="28"/>
     </row>
     <row r="22" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
+      <c r="B22" s="13">
+        <v>10</v>
+      </c>
       <c r="C22" s="25" t="s">
         <v>11</v>
       </c>
@@ -5322,7 +4941,9 @@
       <c r="H22" s="28"/>
     </row>
     <row r="23" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="13">
+        <v>11</v>
+      </c>
       <c r="C23" s="25" t="s">
         <v>13</v>
       </c>
@@ -5338,12 +4959,12 @@
       <c r="G23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="28" t="s">
-        <v>128</v>
-      </c>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="2:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="13">
+        <v>12</v>
+      </c>
       <c r="C24" s="25" t="s">
         <v>11</v>
       </c>
@@ -5452,13 +5073,13 @@
       <c r="H34" s="16"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="40"/>
+      <c r="H35" s="40"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="9"/>
@@ -5542,51 +5163,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G34">
-    <cfRule type="containsText" dxfId="69" priority="17" operator="containsText" text="positive">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="positive">
       <formula>NOT(ISERROR(SEARCH("positive",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="18" operator="containsText" text="negative">
+    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="negative">
       <formula>NOT(ISERROR(SEARCH("negative",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F34">
-    <cfRule type="containsText" dxfId="67" priority="10" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="containsText" dxfId="65" priority="5" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F18">
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="63" priority="1" operator="containsText" text="positive">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="positive">
       <formula>NOT(ISERROR(SEARCH("positive",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13:C34">
-    <cfRule type="containsText" dxfId="62" priority="6" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="18" priority="6" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F34">
-    <cfRule type="containsText" dxfId="60" priority="4" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13:G34">
-    <cfRule type="containsText" dxfId="59" priority="2" operator="containsText" text="negative">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="negative">
       <formula>NOT(ISERROR(SEARCH("negative",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5600,8 +5221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5617,15 +5238,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="23" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="19"/>
@@ -5750,7 +5371,7 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="13">
+      <c r="B12" s="41">
         <v>1</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -5769,7 +5390,9 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="13"/>
+      <c r="B13" s="42">
+        <v>2</v>
+      </c>
       <c r="C13" s="32" t="s">
         <v>11</v>
       </c>
@@ -5786,7 +5409,9 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
+      <c r="B14" s="42">
+        <v>3</v>
+      </c>
       <c r="C14" s="25" t="s">
         <v>11</v>
       </c>
@@ -5803,7 +5428,9 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="13"/>
+      <c r="B15" s="42">
+        <v>4</v>
+      </c>
       <c r="C15" s="25" t="s">
         <v>11</v>
       </c>
@@ -5820,7 +5447,9 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="13"/>
+      <c r="B16" s="42">
+        <v>5</v>
+      </c>
       <c r="C16" s="25" t="s">
         <v>11</v>
       </c>
@@ -5837,7 +5466,9 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="2:8" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="13"/>
+      <c r="B17" s="42">
+        <v>6</v>
+      </c>
       <c r="C17" s="25" t="s">
         <v>11</v>
       </c>
@@ -5854,7 +5485,9 @@
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="13"/>
+      <c r="B18" s="42">
+        <v>7</v>
+      </c>
       <c r="C18" s="25" t="s">
         <v>11</v>
       </c>
@@ -5871,7 +5504,9 @@
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="13"/>
+      <c r="B19" s="42">
+        <v>8</v>
+      </c>
       <c r="C19" s="25" t="s">
         <v>11</v>
       </c>
@@ -5888,7 +5523,9 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="13"/>
+      <c r="B20" s="42">
+        <v>9</v>
+      </c>
       <c r="C20" s="25" t="s">
         <v>11</v>
       </c>
@@ -5905,7 +5542,9 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="2:8" ht="47" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13"/>
+      <c r="B21" s="42">
+        <v>10</v>
+      </c>
       <c r="C21" s="25" t="s">
         <v>11</v>
       </c>
@@ -5922,7 +5561,7 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="25"/>
       <c r="D22" s="29"/>
       <c r="E22" s="27"/>
@@ -5931,7 +5570,7 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="13"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="25"/>
       <c r="D23" s="29"/>
       <c r="E23" s="27"/>
@@ -5940,7 +5579,7 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="2:8" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="13"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
       <c r="E24" s="27"/>
@@ -5949,7 +5588,7 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="2:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="13"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="25"/>
       <c r="D25" s="29"/>
       <c r="E25" s="27"/>
@@ -5958,7 +5597,7 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="13"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="25"/>
       <c r="D26" s="29"/>
       <c r="E26" s="27"/>
@@ -6048,13 +5687,13 @@
       <c r="H35" s="34"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="9"/>
@@ -6138,63 +5777,63 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G35">
-    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="positive">
+    <cfRule type="containsText" dxfId="14" priority="19" operator="containsText" text="positive">
       <formula>NOT(ISERROR(SEARCH("positive",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="20" operator="containsText" text="negative">
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="negative">
       <formula>NOT(ISERROR(SEARCH("negative",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F35">
-    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="55" priority="15" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C13">
-    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="Low">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Low">
       <formula>NOT(ISERROR(SEARCH("Low",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:C35">
-    <cfRule type="containsText" dxfId="53" priority="10" operator="containsText" text="High">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="High">
       <formula>NOT(ISERROR(SEARCH("High",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="11" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="51" priority="7" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",F13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="8" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="6" priority="8" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",F13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="positive">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="positive">
       <formula>NOT(ISERROR(SEARCH("positive",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="2" operator="containsText" text="negative">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="negative">
       <formula>NOT(ISERROR(SEARCH("negative",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="positive">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="positive">
       <formula>NOT(ISERROR(SEARCH("positive",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="negative">
+    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="negative">
       <formula>NOT(ISERROR(SEARCH("negative",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="PASSED">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="PASSED">
       <formula>NOT(ISERROR(SEARCH("PASSED",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="FAILED">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="FAILED">
       <formula>NOT(ISERROR(SEARCH("FAILED",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
